--- a/Exp_2024/Exp_2024.xlsx
+++ b/Exp_2024/Exp_2024.xlsx
@@ -2649,10 +2649,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6697,7 +6697,7 @@
       <c r="D18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>17</v>
       </c>
       <c r="F18" s="31"/>
@@ -6708,10 +6708,10 @@
       <c r="I18" s="5">
         <v>8</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>89200043637</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>184</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -6720,7 +6720,7 @@
       <c r="N18" s="23">
         <v>9914876053</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="14" t="s">
         <v>186</v>
       </c>
       <c r="P18" s="20">
@@ -9370,7 +9370,7 @@
       <c r="C16" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="11">
@@ -9378,22 +9378,22 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>225</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>10</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>9259175393</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>269</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>9217427984</v>
       </c>
       <c r="O16" s="22" t="s">
@@ -9806,8 +9806,8 @@
   <sheetPr/>
   <dimension ref="A1:AJ1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -10420,7 +10420,7 @@
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="3"/>
@@ -11751,13 +11751,13 @@
       <c r="C21" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>1</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>17</v>
       </c>
       <c r="I21" s="5"/>
@@ -11773,13 +11773,13 @@
       <c r="M21" s="5">
         <v>8</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>89200043637</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="14" t="s">
         <v>186</v>
       </c>
       <c r="Q21" s="20" t="s">
@@ -11787,13 +11787,13 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="14" t="s">
         <v>452</v>
       </c>
       <c r="W21" s="5" t="s">
@@ -11926,7 +11926,7 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="3"/>
@@ -12120,13 +12120,13 @@
       <c r="B25" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="15">
         <v>1</v>
       </c>
       <c r="F25" s="3"/>
@@ -12135,22 +12135,22 @@
         <v>34</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>479</v>
       </c>
       <c r="K25" s="21">
         <v>39581</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>225</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>10</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <v>9259175393</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="14" t="s">
         <v>269</v>
       </c>
       <c r="P25" s="22" t="s">
@@ -12160,29 +12160,29 @@
         <v>480</v>
       </c>
       <c r="S25" s="17"/>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="U25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="14" t="s">
         <v>482</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="X25" s="15">
+      <c r="X25" s="14">
         <v>9217427984</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" s="14" t="s">
         <v>483</v>
       </c>
       <c r="AB25" s="17">
         <v>39587</v>
       </c>
-      <c r="AC25" s="15" t="s">
+      <c r="AC25" s="14" t="s">
         <v>484</v>
       </c>
       <c r="AD25" s="3"/>
